--- a/data/game001/symbolsviewer.xlsx
+++ b/data/game001/symbolsviewer.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="36">
   <si>
     <t>Code</t>
   </si>
@@ -106,6 +106,21 @@
   </si>
   <si>
     <t>M</t>
+  </si>
+  <si>
+    <t>NEW_COLLECTOR</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>COIN</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>MULTIPLIER</t>
   </si>
 </sst>
 </file>
@@ -1414,14 +1429,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.16667" defaultRowHeight="13.5" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="5.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="7.35156" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.8516" style="1" customWidth="1"/>
     <col min="3" max="3" width="6.17188" style="1" customWidth="1"/>
     <col min="4" max="4" width="7.35156" style="1" customWidth="1"/>
     <col min="5" max="16384" width="6.17188" style="1" customWidth="1"/>
@@ -1593,6 +1608,48 @@
       </c>
       <c r="D12" t="s" s="8">
         <v>28</v>
+      </c>
+    </row>
+    <row r="13" ht="14" customHeight="1">
+      <c r="A13" s="5">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s" s="6">
+        <v>31</v>
+      </c>
+      <c r="C13" t="s" s="8">
+        <v>32</v>
+      </c>
+      <c r="D13" t="s" s="8">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" ht="14" customHeight="1">
+      <c r="A14" s="5">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s" s="6">
+        <v>33</v>
+      </c>
+      <c r="C14" t="s" s="8">
+        <v>34</v>
+      </c>
+      <c r="D14" t="s" s="8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" ht="14" customHeight="1">
+      <c r="A15" s="5">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s" s="6">
+        <v>35</v>
+      </c>
+      <c r="C15" t="s" s="8">
+        <v>30</v>
+      </c>
+      <c r="D15" t="s" s="8">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/data/game001/symbolsviewer.xlsx
+++ b/data/game001/symbolsviewer.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="38">
   <si>
     <t>Code</t>
   </si>
@@ -121,6 +121,12 @@
   </si>
   <si>
     <t>MULTIPLIER</t>
+  </si>
+  <si>
+    <t>LIGHTNING</t>
+  </si>
+  <si>
+    <t>L</t>
   </si>
 </sst>
 </file>
@@ -177,7 +183,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -213,6 +219,19 @@
       <bottom style="thin">
         <color indexed="8"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -265,11 +284,35 @@
         <color indexed="8"/>
       </left>
       <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
         <color indexed="8"/>
       </right>
       <top style="thin">
         <color indexed="10"/>
       </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top/>
       <bottom style="thin">
         <color indexed="10"/>
       </bottom>
@@ -281,7 +324,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -297,17 +340,26 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
@@ -1429,7 +1481,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1439,7 +1491,8 @@
     <col min="2" max="2" width="12.8516" style="1" customWidth="1"/>
     <col min="3" max="3" width="6.17188" style="1" customWidth="1"/>
     <col min="4" max="4" width="7.35156" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="6.17188" style="1" customWidth="1"/>
+    <col min="5" max="5" width="6.17188" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="6.17188" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
@@ -1455,202 +1508,232 @@
       <c r="D1" t="s" s="4">
         <v>3</v>
       </c>
+      <c r="E1" s="5"/>
     </row>
     <row r="2" ht="14" customHeight="1">
-      <c r="A2" s="5">
+      <c r="A2" s="6">
         <v>0</v>
       </c>
-      <c r="B2" t="s" s="6">
+      <c r="B2" t="s" s="7">
         <v>4</v>
       </c>
-      <c r="C2" t="s" s="7">
+      <c r="C2" t="s" s="8">
         <v>5</v>
       </c>
-      <c r="D2" t="s" s="7">
+      <c r="D2" t="s" s="8">
         <v>6</v>
       </c>
+      <c r="E2" s="9"/>
     </row>
     <row r="3" ht="14" customHeight="1">
-      <c r="A3" s="5">
+      <c r="A3" s="6">
         <v>1</v>
       </c>
-      <c r="B3" t="s" s="6">
+      <c r="B3" t="s" s="7">
         <v>7</v>
       </c>
-      <c r="C3" t="s" s="8">
+      <c r="C3" t="s" s="10">
         <v>8</v>
       </c>
-      <c r="D3" t="s" s="8">
+      <c r="D3" t="s" s="10">
         <v>9</v>
       </c>
+      <c r="E3" s="9"/>
     </row>
     <row r="4" ht="14" customHeight="1">
-      <c r="A4" s="5">
+      <c r="A4" s="6">
         <v>2</v>
       </c>
-      <c r="B4" t="s" s="6">
+      <c r="B4" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C4" t="s" s="8">
+      <c r="C4" t="s" s="10">
         <v>11</v>
       </c>
-      <c r="D4" t="s" s="8">
+      <c r="D4" t="s" s="10">
         <v>12</v>
       </c>
+      <c r="E4" s="9"/>
     </row>
     <row r="5" ht="14" customHeight="1">
-      <c r="A5" s="5">
+      <c r="A5" s="6">
         <v>3</v>
       </c>
-      <c r="B5" t="s" s="6">
+      <c r="B5" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="C5" t="s" s="8">
+      <c r="C5" t="s" s="10">
         <v>14</v>
       </c>
-      <c r="D5" t="s" s="8">
+      <c r="D5" t="s" s="10">
         <v>12</v>
       </c>
+      <c r="E5" s="9"/>
     </row>
     <row r="6" ht="14" customHeight="1">
-      <c r="A6" s="5">
+      <c r="A6" s="6">
         <v>4</v>
       </c>
-      <c r="B6" t="s" s="6">
+      <c r="B6" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="C6" t="s" s="8">
+      <c r="C6" t="s" s="10">
         <v>16</v>
       </c>
-      <c r="D6" t="s" s="8">
+      <c r="D6" t="s" s="10">
         <v>12</v>
       </c>
+      <c r="E6" s="9"/>
     </row>
     <row r="7" ht="14" customHeight="1">
-      <c r="A7" s="5">
+      <c r="A7" s="6">
         <v>5</v>
       </c>
-      <c r="B7" t="s" s="6">
+      <c r="B7" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C7" t="s" s="8">
+      <c r="C7" t="s" s="10">
         <v>18</v>
       </c>
-      <c r="D7" t="s" s="8">
+      <c r="D7" t="s" s="10">
         <v>19</v>
       </c>
+      <c r="E7" s="9"/>
     </row>
     <row r="8" ht="14" customHeight="1">
-      <c r="A8" s="5">
+      <c r="A8" s="6">
         <v>6</v>
       </c>
-      <c r="B8" t="s" s="6">
+      <c r="B8" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="C8" t="s" s="8">
+      <c r="C8" t="s" s="10">
         <v>21</v>
       </c>
-      <c r="D8" t="s" s="8">
+      <c r="D8" t="s" s="10">
         <v>19</v>
       </c>
+      <c r="E8" s="9"/>
     </row>
     <row r="9" ht="14" customHeight="1">
-      <c r="A9" s="5">
+      <c r="A9" s="6">
         <v>7</v>
       </c>
-      <c r="B9" t="s" s="6">
+      <c r="B9" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="C9" t="s" s="8">
+      <c r="C9" t="s" s="10">
         <v>23</v>
       </c>
-      <c r="D9" t="s" s="8">
+      <c r="D9" t="s" s="10">
         <v>19</v>
       </c>
+      <c r="E9" s="9"/>
     </row>
     <row r="10" ht="14" customHeight="1">
-      <c r="A10" s="5">
+      <c r="A10" s="6">
         <v>8</v>
       </c>
-      <c r="B10" t="s" s="6">
+      <c r="B10" t="s" s="7">
         <v>24</v>
       </c>
-      <c r="C10" t="s" s="8">
+      <c r="C10" t="s" s="10">
         <v>25</v>
       </c>
-      <c r="D10" t="s" s="8">
+      <c r="D10" t="s" s="10">
         <v>19</v>
       </c>
+      <c r="E10" s="9"/>
     </row>
     <row r="11" ht="14" customHeight="1">
-      <c r="A11" s="5">
+      <c r="A11" s="6">
         <v>9</v>
       </c>
-      <c r="B11" t="s" s="6">
+      <c r="B11" t="s" s="7">
         <v>26</v>
       </c>
-      <c r="C11" t="s" s="8">
+      <c r="C11" t="s" s="10">
         <v>27</v>
       </c>
-      <c r="D11" t="s" s="8">
+      <c r="D11" t="s" s="10">
         <v>28</v>
       </c>
+      <c r="E11" s="9"/>
     </row>
     <row r="12" ht="14" customHeight="1">
-      <c r="A12" s="5">
+      <c r="A12" s="6">
         <v>10</v>
       </c>
-      <c r="B12" t="s" s="6">
+      <c r="B12" t="s" s="7">
         <v>29</v>
       </c>
-      <c r="C12" t="s" s="8">
+      <c r="C12" t="s" s="10">
         <v>30</v>
       </c>
-      <c r="D12" t="s" s="8">
+      <c r="D12" t="s" s="10">
         <v>28</v>
       </c>
+      <c r="E12" s="9"/>
     </row>
     <row r="13" ht="14" customHeight="1">
-      <c r="A13" s="5">
+      <c r="A13" s="6">
         <v>11</v>
       </c>
-      <c r="B13" t="s" s="6">
+      <c r="B13" t="s" s="7">
         <v>31</v>
       </c>
-      <c r="C13" t="s" s="8">
+      <c r="C13" t="s" s="10">
         <v>32</v>
       </c>
-      <c r="D13" t="s" s="8">
+      <c r="D13" t="s" s="10">
         <v>28</v>
       </c>
+      <c r="E13" s="9"/>
     </row>
     <row r="14" ht="14" customHeight="1">
-      <c r="A14" s="5">
+      <c r="A14" s="6">
         <v>12</v>
       </c>
-      <c r="B14" t="s" s="6">
+      <c r="B14" t="s" s="7">
         <v>33</v>
       </c>
-      <c r="C14" t="s" s="8">
+      <c r="C14" t="s" s="10">
         <v>34</v>
       </c>
-      <c r="D14" t="s" s="8">
+      <c r="D14" t="s" s="10">
         <v>12</v>
       </c>
+      <c r="E14" s="9"/>
     </row>
     <row r="15" ht="14" customHeight="1">
-      <c r="A15" s="5">
+      <c r="A15" s="6">
         <v>13</v>
       </c>
-      <c r="B15" t="s" s="6">
+      <c r="B15" t="s" s="7">
         <v>35</v>
       </c>
-      <c r="C15" t="s" s="8">
+      <c r="C15" t="s" s="10">
         <v>30</v>
       </c>
-      <c r="D15" t="s" s="8">
+      <c r="D15" t="s" s="10">
         <v>9</v>
       </c>
+      <c r="E15" s="9"/>
+    </row>
+    <row r="16" ht="14" customHeight="1">
+      <c r="A16" s="6">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s" s="7">
+        <v>36</v>
+      </c>
+      <c r="C16" t="s" s="10">
+        <v>37</v>
+      </c>
+      <c r="D16" t="s" s="10">
+        <v>28</v>
+      </c>
+      <c r="E16" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1669,79 +1752,79 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.16667" defaultRowHeight="13.5" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="5" width="6.17188" style="9" customWidth="1"/>
-    <col min="6" max="16384" width="6.17188" style="9" customWidth="1"/>
+    <col min="1" max="5" width="6.17188" style="12" customWidth="1"/>
+    <col min="6" max="16384" width="6.17188" style="12" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="14" customHeight="1">
-      <c r="A1" s="10"/>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
+      <c r="A1" s="13"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
     </row>
     <row r="2" ht="14" customHeight="1">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
+      <c r="A2" s="13"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
     </row>
     <row r="3" ht="14" customHeight="1">
-      <c r="A3" s="10"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
+      <c r="A3" s="13"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
     </row>
     <row r="4" ht="14" customHeight="1">
-      <c r="A4" s="10"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
+      <c r="A4" s="13"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
     </row>
     <row r="5" ht="14" customHeight="1">
-      <c r="A5" s="10"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
+      <c r="A5" s="13"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
     </row>
     <row r="6" ht="14" customHeight="1">
-      <c r="A6" s="10"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
+      <c r="A6" s="13"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
     </row>
     <row r="7" ht="14" customHeight="1">
-      <c r="A7" s="10"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
+      <c r="A7" s="13"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
     </row>
     <row r="8" ht="14" customHeight="1">
-      <c r="A8" s="10"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
+      <c r="A8" s="13"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
     </row>
     <row r="9" ht="14" customHeight="1">
-      <c r="A9" s="10"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
+      <c r="A9" s="13"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
     </row>
     <row r="10" ht="14" customHeight="1">
-      <c r="A10" s="10"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
+      <c r="A10" s="13"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1760,79 +1843,79 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.16667" defaultRowHeight="13.5" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="5" width="6.17188" style="11" customWidth="1"/>
-    <col min="6" max="16384" width="6.17188" style="11" customWidth="1"/>
+    <col min="1" max="5" width="6.17188" style="14" customWidth="1"/>
+    <col min="6" max="16384" width="6.17188" style="14" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="14" customHeight="1">
-      <c r="A1" s="10"/>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
+      <c r="A1" s="13"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
     </row>
     <row r="2" ht="14" customHeight="1">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
+      <c r="A2" s="13"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
     </row>
     <row r="3" ht="14" customHeight="1">
-      <c r="A3" s="10"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
+      <c r="A3" s="13"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
     </row>
     <row r="4" ht="14" customHeight="1">
-      <c r="A4" s="10"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
+      <c r="A4" s="13"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
     </row>
     <row r="5" ht="14" customHeight="1">
-      <c r="A5" s="10"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
+      <c r="A5" s="13"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
     </row>
     <row r="6" ht="14" customHeight="1">
-      <c r="A6" s="10"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
+      <c r="A6" s="13"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
     </row>
     <row r="7" ht="14" customHeight="1">
-      <c r="A7" s="10"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
+      <c r="A7" s="13"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
     </row>
     <row r="8" ht="14" customHeight="1">
-      <c r="A8" s="10"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
+      <c r="A8" s="13"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
     </row>
     <row r="9" ht="14" customHeight="1">
-      <c r="A9" s="10"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
+      <c r="A9" s="13"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
     </row>
     <row r="10" ht="14" customHeight="1">
-      <c r="A10" s="10"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
+      <c r="A10" s="13"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
